--- a/Data Files/Scan-1-poi-vs-stage-pos-LHS.xlsx
+++ b/Data Files/Scan-1-poi-vs-stage-pos-LHS.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackmorse/Documents/University/Year 4/Semester 1/FYP/Physics-FYP/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABCC985-4236-2545-947B-73CAC4119A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26129DF-2770-3746-B74A-DF3554E3650F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15820" xr2:uid="{62DC20F5-9A6A-BB4C-8908-EC3FCB096C9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -182,7 +182,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$24</c:f>
+              <c:f>Sheet1!$B$3:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -227,7 +227,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$24</c:f>
+              <c:f>Sheet1!$A$3:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1026,13 +1026,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>97620</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>78475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>546859</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>35257</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1358,10 +1358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DDA139-28F1-734A-9C79-8A9A34D51C44}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1385,183 +1385,183 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>664.43700000000001</v>
+      </c>
+      <c r="B3">
+        <f>C3+D3/1000</f>
+        <v>15.413500000000001</v>
+      </c>
+      <c r="C3">
+        <v>15.4</v>
+      </c>
+      <c r="D3">
+        <v>13.5</v>
+      </c>
+    </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>664.43700000000001</v>
+        <v>675.27300000000002</v>
       </c>
       <c r="B4">
-        <f>C4+D4/1000</f>
-        <v>15.413500000000001</v>
+        <f t="shared" ref="B4:B14" si="0">C4+D4/1000</f>
+        <v>15.398</v>
       </c>
       <c r="C4">
-        <v>15.4</v>
+        <v>15.35</v>
       </c>
       <c r="D4">
-        <v>13.5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>675.27300000000002</v>
+        <v>686.07299999999998</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B24" si="0">C5+D5/1000</f>
-        <v>15.398</v>
+        <f t="shared" si="0"/>
+        <v>15.382</v>
       </c>
       <c r="C5">
         <v>15.35</v>
       </c>
       <c r="D5">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>686.07299999999998</v>
+        <v>695.673</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>15.382</v>
+        <v>15.363999999999999</v>
       </c>
       <c r="C6">
         <v>15.35</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>695.673</v>
+        <v>727.673</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>15.363999999999999</v>
+        <v>15.3307</v>
       </c>
       <c r="C7">
-        <v>15.35</v>
+        <v>15.3</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>30.7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>727.673</v>
+        <v>750.07299999999998</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>15.3307</v>
+        <v>15.309000000000001</v>
       </c>
       <c r="C8">
         <v>15.3</v>
       </c>
       <c r="D8">
-        <v>30.7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>750.07299999999998</v>
+        <v>771.27300000000002</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>15.309000000000001</v>
+        <v>15.2903</v>
       </c>
       <c r="C9">
-        <v>15.3</v>
+        <v>15.25</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>40.299999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>771.27300000000002</v>
+        <v>825.9</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>15.2903</v>
+        <v>15.2538</v>
       </c>
       <c r="C10">
         <v>15.25</v>
       </c>
       <c r="D10">
-        <v>40.299999999999997</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>825.9</v>
+        <v>840</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>15.2538</v>
+        <v>15.2462</v>
       </c>
       <c r="C11">
-        <v>15.25</v>
+        <v>15.2</v>
       </c>
       <c r="D11">
-        <v>3.8</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>840</v>
+        <v>855</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>15.2462</v>
+        <v>15.238899999999999</v>
       </c>
       <c r="C12">
         <v>15.2</v>
       </c>
       <c r="D12">
-        <v>46.2</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>855</v>
+        <v>902.4</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>15.238899999999999</v>
+        <v>15.2211</v>
       </c>
       <c r="C13">
         <v>15.2</v>
       </c>
       <c r="D13">
-        <v>38.9</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>902.4</v>
+        <v>952</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>15.2211</v>
+        <v>15.2112</v>
       </c>
       <c r="C14">
         <v>15.2</v>
       </c>
       <c r="D14">
-        <v>21.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>952</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>15.2112</v>
-      </c>
-      <c r="C15">
-        <v>15.2</v>
-      </c>
-      <c r="D15">
         <v>11.2</v>
       </c>
     </row>
